--- a/python/lin/Error t1=6 t2=2.xlsx
+++ b/python/lin/Error t1=6 t2=2.xlsx
@@ -481,45 +481,29 @@
           <t>τ1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>6.00e+00</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>6.00e+00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.84e+00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.99e+00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.202</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>6.02e+00</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>-0.411</t>
-        </is>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-1.21</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.298</v>
       </c>
     </row>
     <row r="3">
@@ -528,92 +512,60 @@
           <t>τ2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2.00e+00</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2.00e+00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.36e+00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-17.8</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.16e+00</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>-7.95</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>1.87e+00</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>6.51</t>
-        </is>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="E3" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-33.7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Q [Fs^(1-α)]</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>5.00e-05</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>5.00e-05</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.06e-05</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-19.1</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.03e-05</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>-8.68</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>4.99e-05</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>6.64</t>
-        </is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.07e-05</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5.04e-05</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0573</v>
       </c>
     </row>
     <row r="5">
@@ -622,45 +574,29 @@
           <t>α</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>9.50e-01</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>9.50e-01</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>9.49e-01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.127</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>9.50e-01</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.00815</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>9.50e-01</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0.0222</t>
-        </is>
+      <c r="B5" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.0335</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.0434</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.951</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0575</v>
       </c>
     </row>
   </sheetData>

--- a/python/lin/Error t1=6 t2=2.xlsx
+++ b/python/lin/Error t1=6 t2=2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,35 +441,30 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Guess</t>
+          <t>Fitted 1</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Fitted 1</t>
+          <t>% Error</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Fitted 2</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>% Error</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Fitted 2</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>% Error</t>
+          <t>Fitted 3</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Fitted 3</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>% Error</t>
         </is>
@@ -485,25 +480,22 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>5.83</v>
       </c>
       <c r="D2" t="n">
-        <v>5.93</v>
+        <v>-2.82</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.21</v>
+        <v>6.04</v>
       </c>
       <c r="F2" t="n">
-        <v>6.15</v>
+        <v>0.671</v>
       </c>
       <c r="G2" t="n">
-        <v>2.47</v>
+        <v>6.05</v>
       </c>
       <c r="H2" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-0.298</v>
+        <v>0.868</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +508,22 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>2.84</v>
       </c>
       <c r="D3" t="n">
-        <v>2.27</v>
+        <v>42</v>
       </c>
       <c r="E3" t="n">
-        <v>13.7</v>
+        <v>1.72</v>
       </c>
       <c r="F3" t="n">
-        <v>1.33</v>
+        <v>-13.9</v>
       </c>
       <c r="G3" t="n">
-        <v>-33.7</v>
+        <v>1.56</v>
       </c>
       <c r="H3" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.75</v>
+        <v>-21.8</v>
       </c>
     </row>
     <row r="4">
@@ -547,25 +536,22 @@
         <v>5e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>5e-05</v>
+        <v>5.02e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>5.07e-05</v>
+        <v>0.459</v>
       </c>
       <c r="E4" t="n">
-        <v>1.39</v>
+        <v>5.06e-05</v>
       </c>
       <c r="F4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G4" t="n">
         <v>5.04e-05</v>
       </c>
-      <c r="G4" t="n">
-        <v>0.7</v>
-      </c>
       <c r="H4" t="n">
-        <v>5e-05</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.0573</v>
+        <v>0.803</v>
       </c>
     </row>
     <row r="5">
@@ -581,22 +567,87 @@
         <v>0.95</v>
       </c>
       <c r="D5" t="n">
+        <v>0.0353</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.95</v>
       </c>
-      <c r="E5" t="n">
-        <v>-0.0335</v>
-      </c>
       <c r="F5" t="n">
-        <v>0.95</v>
+        <v>0.0214</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0434</v>
+        <v>0.949</v>
       </c>
       <c r="H5" t="n">
-        <v>0.951</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.0575</v>
+        <v>-0.06950000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>SSv</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.08309999999999999</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0799</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0.06809999999999999</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/python/lin/Error t1=6 t2=2.xlsx
+++ b/python/lin/Error t1=6 t2=2.xlsx
@@ -480,22 +480,22 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>5.83</v>
+        <v>5.95</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.82</v>
+        <v>-0.764</v>
       </c>
       <c r="E2" t="n">
-        <v>6.04</v>
+        <v>5.9</v>
       </c>
       <c r="F2" t="n">
-        <v>0.671</v>
+        <v>-1.74</v>
       </c>
       <c r="G2" t="n">
-        <v>6.05</v>
+        <v>6.03</v>
       </c>
       <c r="H2" t="n">
-        <v>0.868</v>
+        <v>0.517</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +508,22 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.84</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>42</v>
+        <v>0.114</v>
       </c>
       <c r="E3" t="n">
-        <v>1.72</v>
+        <v>2.01</v>
       </c>
       <c r="F3" t="n">
-        <v>-13.9</v>
+        <v>0.398</v>
       </c>
       <c r="G3" t="n">
-        <v>1.56</v>
+        <v>1.36</v>
       </c>
       <c r="H3" t="n">
-        <v>-21.8</v>
+        <v>-32.1</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +536,22 @@
         <v>5e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>5.02e-05</v>
+        <v>5.01e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>0.459</v>
+        <v>0.191</v>
       </c>
       <c r="E4" t="n">
-        <v>5.06e-05</v>
+        <v>5.09e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>1.18</v>
+        <v>1.84</v>
       </c>
       <c r="G4" t="n">
-        <v>5.04e-05</v>
+        <v>5.05e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.803</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +564,22 @@
         <v>0.95</v>
       </c>
       <c r="C5" t="n">
+        <v>0.951</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.07580000000000001</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.949</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.056</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.95</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.0353</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0214</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.949</v>
-      </c>
       <c r="H5" t="n">
-        <v>-0.06950000000000001</v>
+        <v>-0.0455</v>
       </c>
     </row>
     <row r="6">
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>16.2</v>
+        <v>15.2</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>15.6</v>
+        <v>23.3</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>13.3</v>
+        <v>22.6</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08309999999999999</v>
+        <v>0.0774</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.0799</v>
+        <v>0.119</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.06809999999999999</v>
+        <v>0.115</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>

--- a/python/lin/Error t1=6 t2=2.xlsx
+++ b/python/lin/Error t1=6 t2=2.xlsx
@@ -480,22 +480,22 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>5.95</v>
+        <v>6.01</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.764</v>
+        <v>0.207</v>
       </c>
       <c r="E2" t="n">
-        <v>5.9</v>
+        <v>6.01</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.74</v>
+        <v>0.168</v>
       </c>
       <c r="G2" t="n">
-        <v>6.03</v>
+        <v>5.85</v>
       </c>
       <c r="H2" t="n">
-        <v>0.517</v>
+        <v>-2.56</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +508,22 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1.44</v>
       </c>
       <c r="D3" t="n">
-        <v>0.114</v>
+        <v>-28</v>
       </c>
       <c r="E3" t="n">
-        <v>2.01</v>
+        <v>2.37</v>
       </c>
       <c r="F3" t="n">
-        <v>0.398</v>
+        <v>18.7</v>
       </c>
       <c r="G3" t="n">
-        <v>1.36</v>
+        <v>1.97</v>
       </c>
       <c r="H3" t="n">
-        <v>-32.1</v>
+        <v>-1.48</v>
       </c>
     </row>
     <row r="4">
@@ -539,19 +539,19 @@
         <v>5.01e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>0.191</v>
+        <v>0.279</v>
       </c>
       <c r="E4" t="n">
-        <v>5.09e-05</v>
+        <v>5.05e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>1.84</v>
+        <v>0.999</v>
       </c>
       <c r="G4" t="n">
-        <v>5.05e-05</v>
+        <v>4.99e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.948</v>
+        <v>-0.286</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +564,22 @@
         <v>0.95</v>
       </c>
       <c r="C5" t="n">
-        <v>0.951</v>
+        <v>0.95</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07580000000000001</v>
+        <v>-0.0374</v>
       </c>
       <c r="E5" t="n">
-        <v>0.949</v>
+        <v>0.95</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.056</v>
+        <v>0.0109</v>
       </c>
       <c r="G5" t="n">
         <v>0.95</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0455</v>
+        <v>0.0115</v>
       </c>
     </row>
     <row r="6">
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>15.2</v>
+        <v>21</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>23.3</v>
+        <v>16.7</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>22.6</v>
+        <v>15.3</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0774</v>
+        <v>0.107</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.119</v>
+        <v>0.0853</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.115</v>
+        <v>0.078</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>

--- a/python/lin/Error t1=6 t2=2.xlsx
+++ b/python/lin/Error t1=6 t2=2.xlsx
@@ -480,22 +480,22 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>6.01</v>
+        <v>5.9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.207</v>
+        <v>-1.72</v>
       </c>
       <c r="E2" t="n">
-        <v>6.01</v>
+        <v>5.93</v>
       </c>
       <c r="F2" t="n">
-        <v>0.168</v>
+        <v>-1.14</v>
       </c>
       <c r="G2" t="n">
-        <v>5.85</v>
+        <v>6.02</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.56</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +508,22 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1.44</v>
+        <v>2.44</v>
       </c>
       <c r="D3" t="n">
-        <v>-28</v>
+        <v>22</v>
       </c>
       <c r="E3" t="n">
-        <v>2.37</v>
+        <v>2.2</v>
       </c>
       <c r="F3" t="n">
-        <v>18.7</v>
+        <v>10.1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.97</v>
+        <v>1.75</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.48</v>
+        <v>-12.6</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +536,22 @@
         <v>5e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>5.01e-05</v>
+        <v>5.02e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>0.279</v>
+        <v>0.367</v>
       </c>
       <c r="E4" t="n">
-        <v>5.05e-05</v>
+        <v>5.03e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>0.999</v>
+        <v>0.606</v>
       </c>
       <c r="G4" t="n">
-        <v>4.99e-05</v>
+        <v>5.09e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.286</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="5">
@@ -567,19 +567,19 @@
         <v>0.95</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.0374</v>
+        <v>-0.0461</v>
       </c>
       <c r="E5" t="n">
         <v>0.95</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0109</v>
+        <v>0.0101</v>
       </c>
       <c r="G5" t="n">
         <v>0.95</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0115</v>
+        <v>-0.0229</v>
       </c>
     </row>
     <row r="6">
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>17.7</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>16.7</v>
+        <v>17.7</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>15.3</v>
+        <v>19.1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.107</v>
+        <v>0.0901</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.0853</v>
+        <v>0.09030000000000001</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.078</v>
+        <v>0.0974</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>

--- a/python/lin/Error t1=6 t2=2.xlsx
+++ b/python/lin/Error t1=6 t2=2.xlsx
@@ -480,22 +480,22 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.72</v>
+        <v>0.0102</v>
       </c>
       <c r="E2" t="n">
-        <v>5.93</v>
+        <v>5.95</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.14</v>
+        <v>-0.845</v>
       </c>
       <c r="G2" t="n">
-        <v>6.02</v>
+        <v>6.14</v>
       </c>
       <c r="H2" t="n">
-        <v>0.374</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +508,22 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.44</v>
+        <v>2.24</v>
       </c>
       <c r="D3" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E3" t="n">
-        <v>2.2</v>
+        <v>1.79</v>
       </c>
       <c r="F3" t="n">
-        <v>10.1</v>
+        <v>-10.6</v>
       </c>
       <c r="G3" t="n">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="H3" t="n">
-        <v>-12.6</v>
+        <v>-24.8</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +536,22 @@
         <v>5e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>5.02e-05</v>
+        <v>5.03e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>0.367</v>
+        <v>0.513</v>
       </c>
       <c r="E4" t="n">
-        <v>5.03e-05</v>
+        <v>4.99e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>0.606</v>
+        <v>-0.274</v>
       </c>
       <c r="G4" t="n">
-        <v>5.09e-05</v>
+        <v>5.04e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>1.71</v>
+        <v>0.891</v>
       </c>
     </row>
     <row r="5">
@@ -567,19 +567,19 @@
         <v>0.95</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.0461</v>
+        <v>0.021</v>
       </c>
       <c r="E5" t="n">
         <v>0.95</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0101</v>
+        <v>0.014</v>
       </c>
       <c r="G5" t="n">
         <v>0.95</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0229</v>
+        <v>-0.00508</v>
       </c>
     </row>
     <row r="6">
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>17.7</v>
+        <v>22.3</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>17.7</v>
+        <v>15.2</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>19.1</v>
+        <v>16.1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0901</v>
+        <v>0.114</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.09030000000000001</v>
+        <v>0.0774</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.0974</v>
+        <v>0.0822</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
